--- a/docs/ペット予約システムDB.xlsx
+++ b/docs/ペット予約システムDB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="-15" windowWidth="10830" windowHeight="10260" activeTab="1"/>
+    <workbookView xWindow="10785" yWindow="-15" windowWidth="10830" windowHeight="10260" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="155">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -524,6 +524,20 @@
   </si>
   <si>
     <t>生年月日</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>商品属性</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2017/3/1</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1378,6 +1392,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1423,36 +1467,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1474,16 +1488,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1939,7 +1953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1962,73 +1976,73 @@
       <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="76"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -2395,10 +2409,10 @@
       <c r="B28" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="63"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="20" t="s">
         <v>23</v>
       </c>
@@ -2439,12 +2453,12 @@
       <c r="C32" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="65"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="75"/>
     </row>
     <row r="34" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -2462,10 +2476,10 @@
         <v>53</v>
       </c>
       <c r="D35" s="41"/>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="67"/>
+      <c r="F35" s="77"/>
       <c r="G35" s="42" t="s">
         <v>65</v>
       </c>
@@ -2486,10 +2500,10 @@
         <v>53</v>
       </c>
       <c r="D38" s="35"/>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="69"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="28" t="s">
         <v>68</v>
       </c>
@@ -2501,14 +2515,14 @@
       <c r="B39" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="70" t="s">
+      <c r="D39" s="56"/>
+      <c r="E39" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="71"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="21" t="s">
         <v>22</v>
       </c>
@@ -2563,83 +2577,83 @@
       <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="76"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -2922,12 +2936,12 @@
       <c r="C27" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
     </row>
     <row r="29" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -2945,10 +2959,10 @@
         <v>53</v>
       </c>
       <c r="D30" s="35"/>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="69"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="28" t="s">
         <v>65</v>
       </c>
@@ -2960,14 +2974,14 @@
       <c r="B31" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="70" t="s">
+      <c r="D31" s="56"/>
+      <c r="E31" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="71"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="21" t="s">
         <v>136</v>
       </c>
@@ -2988,10 +3002,10 @@
         <v>53</v>
       </c>
       <c r="D34" s="35"/>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="69"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="28" t="s">
         <v>68</v>
       </c>
@@ -3003,20 +3017,21 @@
       <c r="B35" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="56"/>
+      <c r="E35" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="71"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="21" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
@@ -3033,7 +3048,6 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3068,73 +3082,73 @@
       <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="76"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -3466,12 +3480,12 @@
       <c r="C29" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="31" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
@@ -3489,10 +3503,10 @@
         <v>53</v>
       </c>
       <c r="D32" s="35"/>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="69"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="28" t="s">
         <v>65</v>
       </c>
@@ -3504,14 +3518,14 @@
       <c r="B33" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="70" t="s">
+      <c r="D33" s="56"/>
+      <c r="E33" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="71"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="21" t="s">
         <v>100</v>
       </c>
@@ -3532,16 +3546,17 @@
         <v>53</v>
       </c>
       <c r="D36" s="41"/>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="67"/>
+      <c r="F36" s="77"/>
       <c r="G36" s="42" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B6:G7"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E36:F36"/>
@@ -3558,7 +3573,6 @@
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3593,73 +3607,73 @@
       <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="76"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -4026,12 +4040,12 @@
       <c r="C30" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="65"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -4049,10 +4063,10 @@
         <v>53</v>
       </c>
       <c r="D33" s="35"/>
-      <c r="E33" s="68" t="s">
+      <c r="E33" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="85"/>
+      <c r="F33" s="86"/>
       <c r="G33" s="28" t="s">
         <v>65</v>
       </c>
@@ -4067,11 +4081,11 @@
       <c r="C34" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="86"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="86"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="27" t="s">
         <v>22</v>
       </c>
@@ -4086,11 +4100,11 @@
       <c r="C35" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="87"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="87"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="25" t="s">
         <v>71</v>
       </c>
@@ -4111,10 +4125,10 @@
         <v>53</v>
       </c>
       <c r="D38" s="35"/>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="85"/>
+      <c r="F38" s="86"/>
       <c r="G38" s="28" t="s">
         <v>68</v>
       </c>
@@ -4126,31 +4140,20 @@
       <c r="B39" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="62" t="s">
+      <c r="D39" s="87"/>
+      <c r="E39" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="88"/>
+      <c r="F39" s="87"/>
       <c r="G39" s="21" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G7"/>
     <mergeCell ref="E33:F33"/>
@@ -4160,6 +4163,17 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="D30:G30"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4194,83 +4208,83 @@
       <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="76"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -4444,10 +4458,10 @@
       <c r="B20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="20" t="s">
         <v>23</v>
       </c>
@@ -4488,12 +4502,12 @@
       <c r="C24" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -4511,10 +4525,10 @@
         <v>53</v>
       </c>
       <c r="D27" s="41"/>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="67"/>
+      <c r="F27" s="77"/>
       <c r="G27" s="42" t="s">
         <v>65</v>
       </c>
@@ -4535,10 +4549,10 @@
         <v>53</v>
       </c>
       <c r="D30" s="41"/>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="67"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="42" t="s">
         <v>68</v>
       </c>
@@ -4568,9 +4582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4591,83 +4603,85 @@
       <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="76"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="75"/>
+      <c r="C3" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="60"/>
       <c r="E3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -4776,10 +4790,10 @@
       <c r="B17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="20" t="s">
         <v>23</v>
       </c>
@@ -4820,12 +4834,12 @@
       <c r="C21" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
     </row>
     <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -4843,10 +4857,10 @@
         <v>53</v>
       </c>
       <c r="D24" s="41"/>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="67"/>
+      <c r="F24" s="77"/>
       <c r="G24" s="42" t="s">
         <v>65</v>
       </c>
@@ -4867,10 +4881,10 @@
         <v>53</v>
       </c>
       <c r="D27" s="35"/>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="69"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="28" t="s">
         <v>68</v>
       </c>
@@ -4882,26 +4896,20 @@
       <c r="B28" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="70" t="s">
+      <c r="D28" s="56"/>
+      <c r="E28" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="71"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="21" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="B6:G8"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -4910,6 +4918,12 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
